--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -31,8 +31,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetBase" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1272,7 +1271,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,31 +1355,218 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1330,285 +1583,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,42 +1619,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>phaseplate</t>
         </is>
       </c>

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -1040,7 +1040,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Antibiotic,Carbohydrate,Chimera,None of these"</formula1>
+      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -942,7 +942,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>molecular_type</t>
+          <t>molecular_overall_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -967,7 +967,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
+    </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"FILAMENT,HELICAL ARRAY,PARTICLE"</formula1>
     </dataValidation>
@@ -1038,11 +1041,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -13,25 +13,40 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movies" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micrographs" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFs" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defocus" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resolution" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigmatism" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordinates" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes2D" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes3D" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrthogonalSlices" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsosurfaceImages" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volumes" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,6 +470,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chromatic_aberration_corrector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -480,7 +531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -511,7 +562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -542,7 +593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -598,7 +649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -634,7 +685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -848,7 +899,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -894,38 +976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -979,7 +1030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1045,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1152,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1228,7 +1279,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dose_per_image</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>initial_dose</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gain_image</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dark_image</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_micrographs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>defocus_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>defocus_micrograph_examples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1245,31 +1501,756 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>output_min_resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>astigmatism_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_particles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_micrograph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>num_source_micrographs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>particles_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>micrograph_examples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>resolution_classes_3D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>vol_resolution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinates</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classes2D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classes3D</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>acquisition</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>instrument</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,301 +2267,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>used</t>
         </is>
       </c>
@@ -1598,40 +2284,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spherical_aberration_corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>chromatic_aberration_corrector</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -9,44 +9,47 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movies" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micrographs" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFs" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defocus" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resolution" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigmatism" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordinates" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes2D" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes3D" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrthogonalSlices" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsosurfaceImages" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volumes" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeSI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2DSI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movies" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micrographs" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFs" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defocus" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resolution" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigmatism" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordinates" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes2D" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes3D" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrthogonalSlices" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsosurfaceImages" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volumes" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,6 +473,193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -481,6 +671,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>phaseplate</t>
         </is>
       </c>
@@ -500,7 +726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -531,7 +757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -562,7 +788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -593,7 +819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -685,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +957,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -858,7 +1115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -899,38 +1156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1030,7 +1256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1325,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1342,6 +1568,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>minimal_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>number_micrographs</t>
         </is>
       </c>
@@ -1356,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1402,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1448,7 +1705,253 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>astigmatism_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_particles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_micrograph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>num_source_micrographs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>particles_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>micrograph_examples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>resolution_classes_3D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,6 +1968,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>increment</t>
         </is>
       </c>
@@ -1484,7 +2023,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>vol_resolution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinates</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classes2D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classes3D</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1501,559 +2265,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>output_min_resolution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>output_max_resolution</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>output_avg_resolution</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>resolution_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>astigmatism_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_particles</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_micrograph</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>num_source_micrographs</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max_si</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min_si</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>particles_histogram</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>micrograph_examples</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_classes_2D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_2Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_2D</t>
+          <t>y_max_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>si_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>si_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>resolution_classes_2D</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_classes_3D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_3Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_3D</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>resolution_classes_3D</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_X</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Y</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>front_view</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>side_view</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>top_view</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>volume_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vol_number_particles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>vol_resolution</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>movies</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>micrographs</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ctfs</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>coordinates</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>classes2D</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>classes3D</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>volumes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -2061,227 +2400,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width_energy_filter</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -2378,12 +2378,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>si_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>si_unit</t>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -739,7 +739,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -1912,12 +1912,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
+          <t>height_im</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width_im</t>
         </is>
       </c>
     </row>

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -1645,6 +1645,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1656,22 +1697,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>number_classes_2D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_2Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_2D</t>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>resolution_classes_2D</t>
+          <t>resolution_classes_3D</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1685,48 +1726,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_classes_3D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_3Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_3D</t>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>orthogonal_slices</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>resolution_classes_3D</t>
+          <t>isosurface_images</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>vol_resolution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>descriptors</t>
         </is>
       </c>
@@ -1736,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,93 +1902,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_X</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Y</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>front_view</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>side_view</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>top_view</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1856,46 +1933,133 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>volume_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vol_number_particles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>size</t>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>orthogonal_slices</t>
+          <t>coordinates</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>isosurface_images</t>
+          <t>classes2D</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>vol_resolution</t>
+          <t>classes3D</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1912,313 +2076,139 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>movies</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>micrographs</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ctfs</t>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>coordinates</t>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>classes2D</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>classes3D</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>volumes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>valueSI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unitSI</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>temperature_range</t>
         </is>
       </c>

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -1,53 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movies" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micrographs" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFs" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defocus" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resolution" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigmatism" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordinates" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes2D" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes3D" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrthogonalSlices" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsosurfaceImages" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volumes" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetSpa" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Any" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Range" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Series" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Organizational" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Person" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Author" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Grant" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Funder" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="OverallMolecule" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Molecule" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Ligand" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Specimen" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Grid" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="SampleMolecular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Movies" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Micrographs" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="CTFs" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Defocus" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Resolution" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Astigmatism" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Coordinates" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Classes2D" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Classes3D" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Volume" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="OrthogonalSlices" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="IsosurfaceImages" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Volumes" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Processing" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="EMDatasetSpa" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -636,7 +639,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dispersion</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collection_angle</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,13 +724,54 @@
           <t>cs</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>operating_mode</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>beam_convergence</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -739,17 +824,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
+          <t>family_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>given_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>job_title</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -759,16 +844,47 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>telephone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -810,17 +926,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>family_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>given_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>job_title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -830,7 +946,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>work_phone</t>
+          <t>telephone</t>
         </is>
       </c>
     </row>
@@ -844,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -895,38 +1011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,42 +1052,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>overall_molecule</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>molecule</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ligands</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>specimen</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>grid</t>
         </is>
@@ -1013,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1067,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1169,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +1411,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1362,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1439,7 +1626,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>defocus_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>defocus_micrograph_examples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>astigmatism_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_particles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_micrograph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>num_source_micrographs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>particles_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>micrograph_examples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_classes_3D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1456,26 +1956,174 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>vol_resolution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinates</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classes2D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classes3D</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,36 +2140,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>output_min_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>output_max_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>output_avg_defocus</t>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instrument</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>defocus_histogram</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>defocus_micrograph_examples</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1538,703 +2186,196 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>output_min_resolution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>output_max_resolution</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>output_avg_resolution</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>resolution_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>astigmatism_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_particles</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_micrograph</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>num_source_micrographs</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>particles_histogram</t>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>micrograph_examples</t>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_classes_2D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_2Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_2D</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>resolution_classes_2D</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_classes_3D</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_3Dclass</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>images_classes_3D</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>resolution_classes_3D</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_X</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Y</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>front_view</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>side_view</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>top_view</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>volume_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vol_number_particles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>vol_resolution</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>movies</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>micrographs</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ctfs</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>coordinates</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>classes2D</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>classes3D</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>volumes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>valueSI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unitSI</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>detector_mode</t>
+          <t>detectors</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">

--- a/project/spa/excel/oscem_schemas_spa.xlsx
+++ b/project/spa/excel/oscem_schemas_spa.xlsx
@@ -16,41 +16,42 @@
     <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Organizational" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Person" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Author" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Grant" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Funder" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="OverallMolecule" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Molecule" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Ligand" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Specimen" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Grid" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="SampleMolecular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Movies" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Micrographs" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="CTFs" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Defocus" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Resolution" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Astigmatism" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Coordinates" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Classes2D" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Classes3D" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Volume" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="OrthogonalSlices" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="IsosurfaceImages" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Volumes" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Processing" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="EMDatasetSpa" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="AcquisitionSpa" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EnergyFilter" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SpecialistOptics" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Phaseplate" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Detector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Microscope" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Organizational" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Person" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Author" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Grant" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Funder" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Sample" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="OverallMolecule" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Molecule" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Ligand" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Specimen" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Grid" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="SampleMolecular" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Movies" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Micrographs" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="CTFs" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Defocus" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Resolution" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Astigmatism" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Coordinates" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Classes2D" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Classes3D" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Volume" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="OrthogonalSlices" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="IsosurfaceImages" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Volumes" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Processing" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="EMDatasetSpa" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,6 +475,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,7 +666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -540,7 +702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -571,7 +733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -602,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -633,7 +795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -674,7 +836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -740,7 +902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -771,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +969,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,38 +1046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1011,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +1270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1162,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1228,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1411,7 +1573,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1467,7 +1665,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dose_per_image</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>initial_dose</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gain_image</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dark_image</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_micrographs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>defocus_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>defocus_micrograph_examples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>astigmatism_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_particles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_micrograph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>num_source_micrographs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>particles_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>micrograph_examples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_classes_3D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1484,26 +2118,174 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>vol_resolution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinates</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classes2D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classes3D</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1520,36 +2302,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dose_per_image</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>initial_dose</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>gain_image</t>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instrument</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dark_image</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,899 +2389,243 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>number_micrographs</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>amplitude_contrast</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>resolution</t>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>astigmatism</t>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>output_min_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>output_max_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>output_avg_defocus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>defocus_histogram</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>defocus_micrograph_examples</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>output_min_resolution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>output_max_resolution</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>output_avg_resolution</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>resolution_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>astigmatism_histogram</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number_particles</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>particles_per_micrograph</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>num_source_micrographs</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>particles_histogram</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>micrograph_examples</t>
+          <t>nominal_magnification</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>particles_per_2Dclass</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>images_classes_2D</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>resolution_classes_2D</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>particles_per_3Dclass</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>images_classes_3D</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>resolution_classes_3D</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_X</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Y</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>front_view</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>side_view</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>top_view</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>volume_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vol_number_particles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>orthogonal_slices</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>isosurface_images</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>vol_resolution</t>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>descriptors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>movies</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>micrographs</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ctfs</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>coordinates</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>classes2D</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>classes3D</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>volumes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>valueSI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unitSI</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>screen_current</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>detectors</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>dose_per_movie</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>energy_filter</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>image_size</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>date_time</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>cryogen</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>frames_per_movie</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>grids_imaged</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>images_generated</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>binning_camera</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>specialist_optics</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>beamshift</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>beamtilt</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>imageshift</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>beamtiltgroups</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>gainref_flip_rotate</t>
         </is>
